--- a/CIMIS Stations List (January20).xlsx
+++ b/CIMIS Stations List (January20).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jbirdsal\Documents\Backup\CIMIS\CIMIS_Stations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eskil\Documents\GitHub\california-wildifres-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13C8B370-4D2B-4504-816D-D6ECCA005D1D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7849BFDA-DC32-429A-AC71-AFE8DE577427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1140" yWindow="975" windowWidth="27660" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="2190" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Active and Inactive" sheetId="3" r:id="rId1"/>
@@ -1124,7 +1124,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1446,11 +1446,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
@@ -9897,7 +9897,7 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
